--- a/Src/Data/Tables/NpcDefine.xlsx
+++ b/Src/Data/Tables/NpcDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>姓名</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>装备NPC</t>
+  </si>
+  <si>
+    <t>薇薇安</t>
+  </si>
+  <si>
+    <t>坐骑NPC</t>
   </si>
 </sst>
 </file>
@@ -117,7 +123,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -138,6 +144,17 @@
       <b/>
       <sz val="9"/>
       <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -647,28 +664,19 @@
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,152 +685,161 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -845,6 +862,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1016,8 +1048,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:G7" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:G7" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:G8" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:G8" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
@@ -1321,7 +1353,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1479,8 +1511,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13.2" spans="4:4">
-      <c r="D8" s="8"/>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="13.2" spans="4:4">
       <c r="D9" s="8"/>
@@ -1495,7 +1547,7 @@
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="1"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Src/Data/Tables/NpcDefine.xlsx
+++ b/Src/Data/Tables/NpcDefine.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="21096" windowHeight="9815" tabRatio="599"/>
+    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>副本NPC</t>
   </si>
   <si>
-    <t>InvokeInsrance</t>
+    <t>InvokeStory</t>
   </si>
   <si>
     <t>奥德里齐</t>
@@ -123,7 +123,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -144,17 +144,6 @@
       <b/>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -664,19 +653,28 @@
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,161 +683,152 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -863,13 +852,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -877,9 +860,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -1353,7 +1333,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1468,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:6">
+    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:7">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1486,6 +1466,9 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="13.2" spans="1:7">
@@ -1512,25 +1495,25 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="9">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="11">
         <v>3</v>
       </c>
     </row>
@@ -1547,7 +1530,7 @@
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="1"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
